--- a/forecast_summary_B0C1ZZ57ZW.xlsx
+++ b/forecast_summary_B0C1ZZ57ZW.xlsx
@@ -488,7 +488,7 @@
         <v>-1.514556315933952</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5068253544142</v>
+        <v>17.64042441662114</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>-2.617230251045018</v>
       </c>
       <c r="D3" t="n">
-        <v>18.28912198569227</v>
+        <v>16.6201965439883</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -560,7 +560,7 @@
         <v>-2.91510982750959</v>
       </c>
       <c r="D4" t="n">
-        <v>15.71118446627673</v>
+        <v>16.6548992654382</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -596,7 +596,7 @@
         <v>-2.47419129882358</v>
       </c>
       <c r="D5" t="n">
-        <v>17.34332442219636</v>
+        <v>16.75117441384114</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>-2.293697859405471</v>
       </c>
       <c r="D6" t="n">
-        <v>16.32923647152826</v>
+        <v>18.22392699872321</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -668,7 +668,7 @@
         <v>-3.409903982860305</v>
       </c>
       <c r="D7" t="n">
-        <v>15.46173247856318</v>
+        <v>15.89800956019089</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -704,7 +704,7 @@
         <v>-5.426062413872022</v>
       </c>
       <c r="D8" t="n">
-        <v>13.47369897396437</v>
+        <v>12.93572156289842</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -740,7 +740,7 @@
         <v>-6.514999184766452</v>
       </c>
       <c r="D9" t="n">
-        <v>12.44978366091885</v>
+        <v>11.85865455729252</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>-5.356960383649724</v>
       </c>
       <c r="D10" t="n">
-        <v>12.61968107785234</v>
+        <v>14.31037386445029</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>-2.805807977619671</v>
       </c>
       <c r="D11" t="n">
-        <v>16.4813544672036</v>
+        <v>18.24644518752616</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -848,7 +848,7 @@
         <v>-1.084684004065017</v>
       </c>
       <c r="D12" t="n">
-        <v>17.96331634289257</v>
+        <v>18.08077902055489</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>-1.392526154904137</v>
       </c>
       <c r="D13" t="n">
-        <v>17.95385736010364</v>
+        <v>18.7823393435219</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -920,7 +920,7 @@
         <v>-2.950978700796204</v>
       </c>
       <c r="D14" t="n">
-        <v>18.09728059204943</v>
+        <v>15.78982458671447</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -956,7 +956,7 @@
         <v>-4.631948961416269</v>
       </c>
       <c r="D15" t="n">
-        <v>15.09143938835147</v>
+        <v>13.93146918752713</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -992,7 +992,7 @@
         <v>-6.742286704585696</v>
       </c>
       <c r="D16" t="n">
-        <v>13.55344231345545</v>
+        <v>11.23525802650791</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -1028,7 +1028,7 @@
         <v>-10.26842404528771</v>
       </c>
       <c r="D17" t="n">
-        <v>10.7013329536713</v>
+        <v>8.771486893698055</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -1064,7 +1064,7 @@
         <v>-14.56307683371668</v>
       </c>
       <c r="D18" t="n">
-        <v>2.510289731372714</v>
+        <v>5.785366465743787</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1100,7 +1100,7 @@
         <v>-17.06484829811482</v>
       </c>
       <c r="D19" t="n">
-        <v>2.947625900475655</v>
+        <v>3.351765655209337</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1136,7 +1136,7 @@
         <v>-16.15716449908831</v>
       </c>
       <c r="D20" t="n">
-        <v>3.828621137750378</v>
+        <v>3.492528385869525</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1172,7 +1172,7 @@
         <v>-13.64580245057114</v>
       </c>
       <c r="D21" t="n">
-        <v>5.662621612379652</v>
+        <v>5.506021936574759</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
     </row>

--- a/forecast_summary_B0C1ZZ57ZW.xlsx
+++ b/forecast_summary_B0C1ZZ57ZW.xlsx
@@ -482,13 +482,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.514556315933952</v>
+        <v>0.9340426377707833</v>
       </c>
       <c r="D2" t="n">
-        <v>17.64042441662114</v>
+        <v>17.21192827634623</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.617230251045018</v>
+        <v>1.021846109424001</v>
       </c>
       <c r="D3" t="n">
-        <v>16.6201965439883</v>
+        <v>15.46671819748819</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -554,13 +554,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.91510982750959</v>
+        <v>0.9855346952909928</v>
       </c>
       <c r="D4" t="n">
-        <v>16.6548992654382</v>
+        <v>15.65855641545533</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.47419129882358</v>
+        <v>0.7305932344104817</v>
       </c>
       <c r="D5" t="n">
-        <v>16.75117441384114</v>
+        <v>16.96892041211459</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.293697859405471</v>
+        <v>0.4792644613848552</v>
       </c>
       <c r="D6" t="n">
-        <v>18.22392699872321</v>
+        <v>16.87912614674357</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -662,13 +662,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.409903982860305</v>
+        <v>0.5922384682829762</v>
       </c>
       <c r="D7" t="n">
-        <v>15.89800956019089</v>
+        <v>16.45157502724582</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -698,13 +698,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.426062413872022</v>
+        <v>1.072779085081642</v>
       </c>
       <c r="D8" t="n">
-        <v>12.93572156289842</v>
+        <v>15.23929624456628</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -734,13 +734,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.514999184766452</v>
+        <v>1.465144979005641</v>
       </c>
       <c r="D9" t="n">
-        <v>11.85865455729252</v>
+        <v>16.3972514698687</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.356960383649724</v>
+        <v>1.436627020659611</v>
       </c>
       <c r="D10" t="n">
-        <v>14.31037386445029</v>
+        <v>16.50519168518329</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.805807977619671</v>
+        <v>1.314164372021102</v>
       </c>
       <c r="D11" t="n">
-        <v>18.24644518752616</v>
+        <v>16.89560446731621</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.084684004065017</v>
+        <v>1.712250775148487</v>
       </c>
       <c r="D12" t="n">
-        <v>18.08077902055489</v>
+        <v>18.30362663792316</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.392526154904137</v>
+        <v>2.588934183724255</v>
       </c>
       <c r="D13" t="n">
-        <v>18.7823393435219</v>
+        <v>17.66261162124021</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -914,13 +914,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.950978700796204</v>
+        <v>3.065313430323464</v>
       </c>
       <c r="D14" t="n">
-        <v>15.78982458671447</v>
+        <v>19.33326424829336</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.631948961416269</v>
+        <v>2.530922581375622</v>
       </c>
       <c r="D15" t="n">
-        <v>13.93146918752713</v>
+        <v>18.99091439992402</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -986,13 +986,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.742286704585696</v>
+        <v>1.709710255354311</v>
       </c>
       <c r="D16" t="n">
-        <v>11.23525802650791</v>
+        <v>17.60581276889283</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -1022,13 +1022,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>-10.26842404528771</v>
+        <v>2.03187188253802</v>
       </c>
       <c r="D17" t="n">
-        <v>8.771486893698055</v>
+        <v>18.87083795922103</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -1058,13 +1058,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.56307683371668</v>
+        <v>3.748432622109414</v>
       </c>
       <c r="D18" t="n">
-        <v>5.785366465743787</v>
+        <v>24.71804220767599</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1094,13 +1094,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>-17.06484829811482</v>
+        <v>5.246754497494031</v>
       </c>
       <c r="D19" t="n">
-        <v>3.351765655209337</v>
+        <v>27.78039253190337</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1130,13 +1130,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>-16.15716449908831</v>
+        <v>4.957895582586956</v>
       </c>
       <c r="D20" t="n">
-        <v>3.492528385869525</v>
+        <v>28.5748753831951</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1166,13 +1166,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.64580245057114</v>
+        <v>3.82627423720204</v>
       </c>
       <c r="D21" t="n">
-        <v>5.506021936574759</v>
+        <v>24.60991023924121</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
